--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -150,6 +150,24 @@
   </si>
   <si>
     <t>Biogil</t>
+  </si>
+  <si>
+    <t>95m</t>
+  </si>
+  <si>
+    <t>Saint-Joachim</t>
+  </si>
+  <si>
+    <t>Capitale-Nationale</t>
+  </si>
+  <si>
+    <t>C/D</t>
+  </si>
+  <si>
+    <t>Réserve nationale de faune du Cap-Tourmente</t>
+  </si>
+  <si>
+    <t>Simon Bourbeau</t>
   </si>
 </sst>
 </file>
@@ -178,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,8 +233,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -252,11 +276,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -299,6 +334,19 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A13" sqref="A13:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,6 +965,64 @@
         <v>41</v>
       </c>
     </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>44669</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>44669</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -168,6 +168,45 @@
   </si>
   <si>
     <t>Simon Bourbeau</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Outaouais</t>
+  </si>
+  <si>
+    <t>iNaturalist (https://www.inaturalist.org/observations/156152579)</t>
+  </si>
+  <si>
+    <t>gonature1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Saguenay</t>
+  </si>
+  <si>
+    <t>Saguenay - Lac-Saint-Jean</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Un individu probable</t>
+  </si>
+  <si>
+    <t>Sacha Auclair Vincent</t>
+  </si>
+  <si>
+    <t>Saint-Bernard-de-Michaudville</t>
+  </si>
+  <si>
+    <t>Nord de la Montérégie, iNaturalist</t>
+  </si>
+  <si>
+    <t>Mattias Perez</t>
   </si>
 </sst>
 </file>
@@ -196,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,8 +278,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -287,11 +332,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -332,21 +388,37 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD14"/>
+      <selection activeCell="A15" sqref="A15:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,8 +717,8 @@
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="47.140625" bestFit="1" customWidth="1"/>
@@ -654,10 +726,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -966,8 +1038,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>44669</v>
+      <c r="A13" s="18">
+        <v>45034</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>21</v>
@@ -975,28 +1047,28 @@
       <c r="C13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="22" t="s">
         <v>45</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
-        <v>44669</v>
+      <c r="A14" s="18">
+        <v>45034</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>9</v>
@@ -1004,23 +1076,139 @@
       <c r="C14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="22" t="s">
         <v>45</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="17" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>45037</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="23">
+        <v>98</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>45038</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>45039</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>45039</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -207,6 +207,33 @@
   </si>
   <si>
     <t>Mattias Perez</t>
+  </si>
+  <si>
+    <t>Julien Savoie</t>
+  </si>
+  <si>
+    <t>iNaturalist (https://www.inaturalist.org/observations/156684795)</t>
+  </si>
+  <si>
+    <t>Sainte-Louise</t>
+  </si>
+  <si>
+    <t>Chaudière-Appalaches</t>
+  </si>
+  <si>
+    <t>Rosemère</t>
+  </si>
+  <si>
+    <t>ramenramen</t>
+  </si>
+  <si>
+    <t>iNaturalist (https://www.inaturalist.org/observations/156678026)</t>
+  </si>
+  <si>
+    <t>philomene222</t>
+  </si>
+  <si>
+    <t>iNaturalist (https://www.inaturalist.org/observations/156668393)</t>
   </si>
 </sst>
 </file>
@@ -401,9 +428,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,6 +442,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -706,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD18"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,10 +753,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1053,7 +1080,7 @@
       <c r="E13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>45</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -1082,7 +1109,7 @@
       <c r="E14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>45</v>
       </c>
       <c r="G14" s="8" t="s">
@@ -1102,25 +1129,25 @@
       <c r="B15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>98</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="26" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1209,6 +1236,93 @@
       </c>
       <c r="I18" s="17" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>45041</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>45041</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>45041</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>iNaturalist (https://www.inaturalist.org/observations/156668393)</t>
+  </si>
+  <si>
+    <t>Lévis</t>
+  </si>
+  <si>
+    <t>Donnée soumise à l'AARQ</t>
+  </si>
+  <si>
+    <t>Jean Rodrigue</t>
   </si>
 </sst>
 </file>
@@ -733,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,6 +1334,35 @@
         <v>68</v>
       </c>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>45042</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>Jean Rodrigue</t>
+  </si>
+  <si>
+    <t>Frampton</t>
+  </si>
+  <si>
+    <t>Véronique Brochu</t>
   </si>
 </sst>
 </file>
@@ -440,9 +446,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -452,6 +455,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -742,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,25 +1144,25 @@
       <c r="B15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="26">
         <v>98</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="25" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1361,6 +1367,35 @@
       </c>
       <c r="I22" s="17" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>45042</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -245,10 +245,16 @@
     <t>Jean Rodrigue</t>
   </si>
   <si>
-    <t>Frampton</t>
-  </si>
-  <si>
-    <t>Véronique Brochu</t>
+    <t>Sainte-Blandine / Rimouski</t>
+  </si>
+  <si>
+    <t>Bas-Saint-Laurent</t>
+  </si>
+  <si>
+    <t>Walter Bertracchi</t>
+  </si>
+  <si>
+    <t>Avril peu de pluie, reste peu neige dans boisés</t>
   </si>
 </sst>
 </file>
@@ -748,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D33" sqref="D33:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,60 +1261,60 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
-        <v>45041</v>
+        <v>45039</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>10</v>
+      <c r="C19" s="8">
+        <v>101</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>52</v>
+        <v>74</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>45041</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>28</v>
+      <c r="B20" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>12</v>
+        <v>64</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1334,59 +1340,59 @@
         <v>13</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
-        <v>45042</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>21</v>
+        <v>45041</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>45042</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>9</v>
+      <c r="B23" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="21" t="s">
-        <v>55</v>
+      <c r="F23" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>24</v>
@@ -1395,10 +1401,71 @@
         <v>71</v>
       </c>
       <c r="I23" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>45043</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="8">
+        <v>101</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>74</v>
       </c>
+      <c r="F24" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>45043</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="8">
+        <v>101</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A4:I25">
+    <sortCondition ref="A4:A25"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -757,7 +757,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:D34"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,8 +1263,8 @@
       <c r="A19" s="18">
         <v>45039</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>9</v>
+      <c r="B19" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C19" s="8">
         <v>101</v>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Avril peu de pluie, reste peu neige dans boisés</t>
+  </si>
+  <si>
+    <t>141m</t>
   </si>
 </sst>
 </file>
@@ -757,7 +760,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,8 +1269,8 @@
       <c r="B19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="8">
-        <v>101</v>
+      <c r="C19" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>73</v>
@@ -1411,8 +1414,8 @@
       <c r="B24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="8">
-        <v>101</v>
+      <c r="C24" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>73</v>
@@ -1440,8 +1443,8 @@
       <c r="B25" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="8">
-        <v>101</v>
+      <c r="C25" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>73</v>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -258,6 +258,57 @@
   </si>
   <si>
     <t>141m</t>
+  </si>
+  <si>
+    <t>Les Cèdres</t>
+  </si>
+  <si>
+    <t>Sébastien Rouleau</t>
+  </si>
+  <si>
+    <t>Waskaganish</t>
+  </si>
+  <si>
+    <t>Angela Coxon</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Nord-du-Québec</t>
+  </si>
+  <si>
+    <t>Wentworth-Nord</t>
+  </si>
+  <si>
+    <t>iNaturalist (https://www.inaturalist.org/observations/157352879)</t>
+  </si>
+  <si>
+    <t>Thierry Jolicoeur</t>
+  </si>
+  <si>
+    <t>iNaturalist (https://www.inaturalist.org/observations/157569878)</t>
+  </si>
+  <si>
+    <t>Daniel Alain</t>
+  </si>
+  <si>
+    <t>iNaturalist (https://www.inaturalist.org/observations/157825188)</t>
+  </si>
+  <si>
+    <t>Biscotte</t>
+  </si>
+  <si>
+    <t>Domaine Saint-François</t>
+  </si>
+  <si>
+    <t>Lanaudière</t>
+  </si>
+  <si>
+    <t>Doute possible sur l'identification</t>
+  </si>
+  <si>
+    <t>Stéphanie Vachon</t>
   </si>
 </sst>
 </file>
@@ -286,7 +337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +383,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -466,6 +523,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -757,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,10 +837,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1295,29 +1355,29 @@
       <c r="A20" s="18">
         <v>45041</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>9</v>
+      <c r="B20" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1343,39 +1403,39 @@
         <v>13</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>45041</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>28</v>
+      <c r="B22" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>12</v>
+        <v>64</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1465,9 +1525,180 @@
         <v>75</v>
       </c>
     </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>45044</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>45044</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>45044</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>45045</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>45045</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>45045</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A4:I25">
-    <sortCondition ref="A4:A25"/>
+  <sortState ref="A4:I31">
+    <sortCondition ref="A4:A31"/>
+    <sortCondition ref="F4:F31"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -455,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -526,6 +526,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -817,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,10 +840,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1556,46 +1559,44 @@
       <c r="A27" s="18">
         <v>45044</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>21</v>
+      <c r="B27" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="8" t="s">
+      <c r="D27" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>86</v>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>45044</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>28</v>
+      <c r="B28" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="F28" s="20" t="s">
         <v>52</v>
@@ -1604,15 +1605,15 @@
         <v>39</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
-        <v>45045</v>
+        <v>45044</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>28</v>
@@ -1621,22 +1622,22 @@
         <v>10</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1650,10 +1651,10 @@
         <v>10</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>38</v>
+        <v>18</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>12</v>
@@ -1662,43 +1663,72 @@
         <v>24</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>45045</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>21</v>
+      <c r="B31" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>82</v>
+        <v>65</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="16"/>
+      <c r="H31" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="I31" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>45045</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:I31">
-    <sortCondition ref="A4:A31"/>
-    <sortCondition ref="F4:F31"/>
+  <sortState ref="A4:I32">
+    <sortCondition ref="A4:A32"/>
+    <sortCondition ref="F4:F32"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="99">
   <si>
     <t>Date</t>
   </si>
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>Stéphanie Vachon</t>
+  </si>
+  <si>
+    <t>Lotbinière</t>
+  </si>
+  <si>
+    <t>Summum d'activité</t>
+  </si>
+  <si>
+    <t>Bertrand Le Grand</t>
+  </si>
+  <si>
+    <t>Cote 1-2</t>
   </si>
 </sst>
 </file>
@@ -820,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,93 +1654,180 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
-        <v>45045</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>10</v>
+        <v>45044</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="8">
+        <v>178</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
-        <v>45045</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>10</v>
+        <v>45044</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="8">
+        <v>178</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>12</v>
+        <v>64</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
+        <v>45044</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
         <v>45045</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B33" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
+        <v>45045</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>45045</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="8" t="s">
+      <c r="C35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E35" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F35" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G35" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17" t="s">
+      <c r="H35" s="16"/>
+      <c r="I35" s="17" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:I32">
-    <sortCondition ref="A4:A32"/>
-    <sortCondition ref="F4:F32"/>
+  <sortState ref="A4:I35">
+    <sortCondition ref="A4:A35"/>
+    <sortCondition ref="F4:F35"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -321,6 +321,18 @@
   </si>
   <si>
     <t>Cote 1-2</t>
+  </si>
+  <si>
+    <t>Sainte-Ours</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Amplexus et ponte</t>
+  </si>
+  <si>
+    <t>Alexandre Gariépy/Marc DuBois (Facebook, Amphibiens et Reptiles du Québec)</t>
   </si>
 </sst>
 </file>
@@ -832,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,9 +858,9 @@
     <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="55.85546875" customWidth="1"/>
+    <col min="9" max="9" width="80.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1822,6 +1834,35 @@
       <c r="H35" s="16"/>
       <c r="I35" s="17" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>45046</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -333,6 +333,15 @@
   </si>
   <si>
     <t>Alexandre Gariépy/Marc DuBois (Facebook, Amphibiens et Reptiles du Québec)</t>
+  </si>
+  <si>
+    <t>Boucherville</t>
+  </si>
+  <si>
+    <t>Ornitholarocque</t>
+  </si>
+  <si>
+    <t>iNaturalist (https://www.inaturalist.org/observations/159092353)</t>
   </si>
 </sst>
 </file>
@@ -844,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,6 +1874,35 @@
         <v>102</v>
       </c>
     </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>45047</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A4:I35">
     <sortCondition ref="A4:A35"/>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -342,6 +342,15 @@
   </si>
   <si>
     <t>iNaturalist (https://www.inaturalist.org/observations/159092353)</t>
+  </si>
+  <si>
+    <t>Côte-Nord</t>
+  </si>
+  <si>
+    <t>Pierre-Louis Harton</t>
+  </si>
+  <si>
+    <t>Longue-Rive</t>
   </si>
 </sst>
 </file>
@@ -853,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,8 +1912,37 @@
         <v>104</v>
       </c>
     </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="18">
+        <v>45045</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A4:I35">
+  <sortState ref="A4:I38">
     <sortCondition ref="A4:A35"/>
     <sortCondition ref="F4:F35"/>
   </sortState>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="112">
   <si>
     <t>Date</t>
   </si>
@@ -351,6 +351,15 @@
   </si>
   <si>
     <t>Longue-Rive</t>
+  </si>
+  <si>
+    <t>217 &amp; 227</t>
+  </si>
+  <si>
+    <t>Saint-Félicien</t>
+  </si>
+  <si>
+    <t>Alexandra Coutu</t>
   </si>
 </sst>
 </file>
@@ -862,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:D42"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,92 +1780,90 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
-        <v>45045</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>28</v>
+        <v>45044</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>12</v>
+        <v>110</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>87</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H33" s="16"/>
       <c r="I33" s="17" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
-        <v>45045</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>28</v>
+        <v>45044</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>89</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H34" s="16"/>
       <c r="I34" s="17" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>45045</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>21</v>
+      <c r="B35" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>82</v>
+        <v>18</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="16"/>
+      <c r="H35" s="16" t="s">
+        <v>87</v>
+      </c>
       <c r="I35" s="17" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
-        <v>45046</v>
+        <v>45045</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>28</v>
@@ -1865,86 +1872,142 @@
         <v>10</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>11</v>
+        <v>65</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
-        <v>45047</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>28</v>
+        <v>45045</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>12</v>
+        <v>108</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>45045</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>9</v>
+      <c r="B38" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>45</v>
+        <v>80</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>71</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H38" s="16"/>
       <c r="I38" s="17" t="s">
-        <v>107</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>45046</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="18">
+        <v>45047</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:I38">
-    <sortCondition ref="A4:A35"/>
-    <sortCondition ref="F4:F35"/>
+  <sortState ref="A4:I40">
+    <sortCondition ref="A4:A40"/>
+    <sortCondition ref="F4:F40"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -360,6 +360,21 @@
   </si>
   <si>
     <t>Alexandra Coutu</t>
+  </si>
+  <si>
+    <t>222 &amp; 223</t>
+  </si>
+  <si>
+    <t>Chibougamau</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Au moins un individu en chant</t>
+  </si>
+  <si>
+    <t>Info rapportée à Mélody Rahaga</t>
   </si>
 </sst>
 </file>
@@ -388,7 +403,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +455,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -584,6 +605,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,6 +2028,35 @@
         <v>104</v>
       </c>
     </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="18">
+        <v>45049</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A4:I40">
     <sortCondition ref="A4:A40"/>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="120">
   <si>
     <t>Date</t>
   </si>
@@ -375,6 +375,15 @@
   </si>
   <si>
     <t>Info rapportée à Mélody Rahaga</t>
+  </si>
+  <si>
+    <t>Baie-Saint-Paul</t>
+  </si>
+  <si>
+    <t>Présence de masses d'oeufs, donnée soumise à l'AARQ</t>
+  </si>
+  <si>
+    <t>Suzanne Couture</t>
   </si>
 </sst>
 </file>
@@ -603,11 +612,11 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,10 +924,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2044,7 +2053,7 @@
       <c r="E41" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="29" t="s">
         <v>114</v>
       </c>
       <c r="G41" s="8" t="s">
@@ -2055,6 +2064,35 @@
       </c>
       <c r="I41" s="17" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="18">
+        <v>45051</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="128">
   <si>
     <t>Date</t>
   </si>
@@ -384,6 +384,30 @@
   </si>
   <si>
     <t>Suzanne Couture</t>
+  </si>
+  <si>
+    <t>201m</t>
+  </si>
+  <si>
+    <t>La Baie</t>
+  </si>
+  <si>
+    <t>Plus de cotes 1 et 2, mais max 3</t>
+  </si>
+  <si>
+    <t>Chorales sur presque toute la route</t>
+  </si>
+  <si>
+    <t>Yoann Perrot</t>
+  </si>
+  <si>
+    <t>stephv</t>
+  </si>
+  <si>
+    <t>iNaturalist (https://www.inaturalist.org/observations/159936930)</t>
+  </si>
+  <si>
+    <t>Eeyou Istchee (Eastmain)</t>
   </si>
 </sst>
 </file>
@@ -904,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,19 +2092,19 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
-        <v>45051</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>9</v>
+        <v>45050</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>44</v>
+        <v>121</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="F42" s="21" t="s">
         <v>45</v>
@@ -2089,10 +2113,97 @@
         <v>39</v>
       </c>
       <c r="H42" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="18">
+        <v>45050</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="18">
+        <v>45051</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="I42" s="17" t="s">
+      <c r="I44" s="17" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="18">
+        <v>45051</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="140">
   <si>
     <t>Date</t>
   </si>
@@ -329,12 +329,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Amplexus et ponte</t>
-  </si>
-  <si>
-    <t>Alexandre Gariépy/Marc DuBois (Facebook, Amphibiens et Reptiles du Québec)</t>
-  </si>
-  <si>
     <t>Boucherville</t>
   </si>
   <si>
@@ -408,6 +402,48 @@
   </si>
   <si>
     <t>Eeyou Istchee (Eastmain)</t>
+  </si>
+  <si>
+    <t>Sylvie Gagnon</t>
+  </si>
+  <si>
+    <t>Saint-Jean-sur-le-Richelieu</t>
+  </si>
+  <si>
+    <t>Vaudreuil</t>
+  </si>
+  <si>
+    <t>zemleroi</t>
+  </si>
+  <si>
+    <t>Mathieu Morin-Gagnon</t>
+  </si>
+  <si>
+    <t>iNaturalist (https://www.inaturalist.org/observations/159898753)</t>
+  </si>
+  <si>
+    <t>iNaturalist (https://www.inaturalist.org/observations/160407393)</t>
+  </si>
+  <si>
+    <t>iNaturalist (https://www.inaturalist.org/observations/160556539)</t>
+  </si>
+  <si>
+    <t>Jamy Lacroix</t>
+  </si>
+  <si>
+    <t>Sept-Îles (Place La Boule)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandre Gariépy/Marc DuBois </t>
+  </si>
+  <si>
+    <t>Amplexus et ponte (Facebook, Amphibiens et Reptiles du Québec)</t>
+  </si>
+  <si>
+    <t>Amplexus (Facebook, Amphibiens et Reptiles du Québec)</t>
+  </si>
+  <si>
+    <t>Jean-Pierre Larivée</t>
   </si>
 </sst>
 </file>
@@ -928,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,10 +1879,10 @@
         <v>21</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>54</v>
@@ -1859,7 +1895,7 @@
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1870,10 +1906,10 @@
         <v>9</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>54</v>
@@ -1886,7 +1922,7 @@
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1958,10 +1994,10 @@
         <v>10</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F37" s="21" t="s">
         <v>45</v>
@@ -1973,7 +2009,7 @@
         <v>71</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2026,10 +2062,10 @@
         <v>100</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2043,7 +2079,7 @@
         <v>10</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>11</v>
@@ -2055,10 +2091,10 @@
         <v>39</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2069,25 +2105,25 @@
         <v>21</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>83</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2098,10 +2134,10 @@
         <v>21</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>54</v>
@@ -2113,10 +2149,10 @@
         <v>39</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2127,10 +2163,10 @@
         <v>9</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>54</v>
@@ -2142,10 +2178,10 @@
         <v>39</v>
       </c>
       <c r="H43" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" s="17" t="s">
         <v>122</v>
-      </c>
-      <c r="I43" s="17" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2159,7 +2195,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>44</v>
@@ -2171,10 +2207,10 @@
         <v>39</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2184,11 +2220,11 @@
       <c r="B45" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>10</v>
+      <c r="C45" s="8">
+        <v>2</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>83</v>
@@ -2200,10 +2236,153 @@
         <v>13</v>
       </c>
       <c r="H45" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="18">
+        <v>45051</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="8">
+        <v>2</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="I45" s="17" t="s">
-        <v>125</v>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="18">
+        <v>45051</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="18">
+        <v>45051</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="18">
+        <v>45053</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="18">
+        <v>45054</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="144">
   <si>
     <t>Date</t>
   </si>
@@ -444,6 +444,18 @@
   </si>
   <si>
     <t>Jean-Pierre Larivée</t>
+  </si>
+  <si>
+    <t>Amplexus et ponte, donnée soumise à l'AARQ</t>
+  </si>
+  <si>
+    <t>Montcalm</t>
+  </si>
+  <si>
+    <t>Marie-Eve Nepveu</t>
+  </si>
+  <si>
+    <t>Pierre-Alexandre Bourgeois</t>
   </si>
 </sst>
 </file>
@@ -964,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,7 +2341,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
-        <v>45053</v>
+        <v>45052</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>28</v>
@@ -2338,27 +2350,27 @@
         <v>10</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
-        <v>45054</v>
+        <v>45053</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>28</v>
@@ -2367,7 +2379,7 @@
         <v>10</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>11</v>
@@ -2376,12 +2388,70 @@
         <v>12</v>
       </c>
       <c r="G50" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="18">
+        <v>45053</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="18">
+        <v>45054</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="H52" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="I50" s="17" t="s">
+      <c r="I52" s="17" t="s">
         <v>134</v>
       </c>
     </row>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="153">
   <si>
     <t>Date</t>
   </si>
@@ -456,6 +456,33 @@
   </si>
   <si>
     <t>Pierre-Alexandre Bourgeois</t>
+  </si>
+  <si>
+    <t>Diane Ostiguy</t>
+  </si>
+  <si>
+    <t>Forillon</t>
+  </si>
+  <si>
+    <t>Gaspésie</t>
+  </si>
+  <si>
+    <t>Sainte-Anne-des-Monts</t>
+  </si>
+  <si>
+    <t>Jean-Philippe Baillargeon</t>
+  </si>
+  <si>
+    <t>La Tuque</t>
+  </si>
+  <si>
+    <t>Mauricie</t>
+  </si>
+  <si>
+    <t>iNaturalist (https://www.inaturalist.org/observations/160902825)</t>
+  </si>
+  <si>
+    <t>Lyse Lafrenière</t>
   </si>
 </sst>
 </file>
@@ -976,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,29 +2227,29 @@
       <c r="A44" s="18">
         <v>45051</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>9</v>
+      <c r="B44" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>45</v>
+        <v>18</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2232,26 +2259,26 @@
       <c r="B45" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="8">
-        <v>2</v>
+      <c r="C45" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>82</v>
+        <v>44</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2285,29 +2312,29 @@
       <c r="A47" s="18">
         <v>45051</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>28</v>
+      <c r="B47" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>12</v>
+        <v>104</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>112</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2317,26 +2344,26 @@
       <c r="B48" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>10</v>
+      <c r="C48" s="8">
+        <v>2</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>112</v>
+        <v>125</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2455,10 +2482,149 @@
         <v>134</v>
       </c>
     </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="18">
+        <v>45054</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="8">
+        <v>132</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" s="16"/>
+      <c r="I53" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="18">
+        <v>45054</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="8">
+        <v>132</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H54" s="16"/>
+      <c r="I54" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="18">
+        <v>45056</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="18">
+        <v>45058</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="18">
+        <v>45058</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="8">
+        <v>212</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57" s="16"/>
+      <c r="I57" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A4:I40">
-    <sortCondition ref="A4:A40"/>
-    <sortCondition ref="F4:F40"/>
+  <sortState ref="A4:I57">
+    <sortCondition ref="A4:A57"/>
+    <sortCondition ref="F4:F57"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="162">
   <si>
     <t>Date</t>
   </si>
@@ -483,6 +483,33 @@
   </si>
   <si>
     <t>Lyse Lafrenière</t>
+  </si>
+  <si>
+    <t>Québec</t>
+  </si>
+  <si>
+    <t>sabacon</t>
+  </si>
+  <si>
+    <t>iNaturalist (https://www.inaturalist.org/observations/161376361)</t>
+  </si>
+  <si>
+    <t>Granby</t>
+  </si>
+  <si>
+    <t>Caroline Cormier</t>
+  </si>
+  <si>
+    <t>iNaturalist (https://www.inaturalist.org/observations/161406008)</t>
+  </si>
+  <si>
+    <t>Dolbeau-Mistassini</t>
+  </si>
+  <si>
+    <t>Anne-Marie Baril</t>
+  </si>
+  <si>
+    <t>Cote 1-3</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2621,6 +2648,147 @@
         <v>144</v>
       </c>
     </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="18">
+        <v>45058</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I58" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="18">
+        <v>45059</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="18">
+        <v>45059</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="I60" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="18">
+        <v>45059</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="8">
+        <v>212</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H61" s="16"/>
+      <c r="I61" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="18">
+        <v>45059</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="8">
+        <v>212</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H62" s="16"/>
+      <c r="I62" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A4:I57">
     <sortCondition ref="A4:A57"/>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="165">
   <si>
     <t>Date</t>
   </si>
@@ -510,6 +510,15 @@
   </si>
   <si>
     <t>Cote 1-3</t>
+  </si>
+  <si>
+    <t>Jonquière</t>
+  </si>
+  <si>
+    <t>Avec RASY et PSCR</t>
+  </si>
+  <si>
+    <t>Martin Bertrand</t>
   </si>
 </sst>
 </file>
@@ -1030,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,31 +2688,31 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
-        <v>45059</v>
+        <v>45058</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>10</v>
+      <c r="C59" s="8">
+        <v>66</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>39</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2717,57 +2726,59 @@
         <v>10</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>52</v>
+        <v>26</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
         <v>45059</v>
       </c>
-      <c r="B61" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="8">
-        <v>212</v>
+      <c r="B61" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H61" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>155</v>
+      </c>
       <c r="I61" s="17" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
         <v>45059</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>28</v>
+      <c r="B62" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C62" s="8">
         <v>212</v>
@@ -2786,6 +2797,33 @@
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="18">
+        <v>45059</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="8">
+        <v>212</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H63" s="16"/>
+      <c r="I63" s="17" t="s">
         <v>144</v>
       </c>
     </row>

--- a/Chronologie2023.xlsx
+++ b/Chronologie2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="168">
   <si>
     <t>Date</t>
   </si>
@@ -519,6 +519,15 @@
   </si>
   <si>
     <t>Martin Bertrand</t>
+  </si>
+  <si>
+    <t>Christophe Buidin</t>
+  </si>
+  <si>
+    <t>Rivière-Saint-Jean</t>
+  </si>
+  <si>
+    <t>iNaturalist (https://www.inaturalist.org/observations/163299613)</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,6 +2836,35 @@
         <v>144</v>
       </c>
     </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="18">
+        <v>45069</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="I64" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A4:I57">
     <sortCondition ref="A4:A57"/>
